--- a/Ganadería/17.9.xlsx
+++ b/Ganadería/17.9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442519CF-18E8-4FBD-8966-1969DEF7DCED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C595FB-E57C-4A81-B725-92A9A380D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB904DA5-417E-4A1E-A21B-9346037C30AD}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{DB904DA5-417E-4A1E-A21B-9346037C30AD}"/>
   </bookViews>
   <sheets>
     <sheet name="faena matade Ton carne en vara" sheetId="2" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -752,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -778,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
